--- a/2020/CONTROLE DE CAIXA ABRIL 2020/08-04-2020_FluxoDeCaixa.xlsx
+++ b/2020/CONTROLE DE CAIXA ABRIL 2020/08-04-2020_FluxoDeCaixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\2020\CONTROLE DE CAIXA ABRIL 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF60783-2D32-4A1F-9F29-5A67A256B207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEC89B-F287-45F1-827B-DCCBB6941A77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,8 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16">
-        <f>SUM('Caixa de Henrique'!B6,'Caixa de Deborah'!B6,'Caixa de Jenniffer'!B6)</f>
-        <v>1610.5</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,15 +1071,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM('Caixa de Henrique'!B7,'Caixa de Deborah'!B7,'Caixa de Jenniffer'!B7)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6">
-        <f>SUM('Caixa de Henrique'!D7,'Caixa de Deborah'!D7,'Caixa de Jenniffer'!D7)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,8 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <f>SUM('Caixa de Henrique'!B9,'Caixa de Deborah'!B9,'Caixa de Jenniffer'!B9)</f>
-        <v>329.9</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,8 +1102,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('Caixa de Henrique'!B10,'Caixa de Deborah'!B10,'Caixa de Jenniffer'!B10)</f>
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -1120,8 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="11">
-        <f>(B5+B6+B4)-B9</f>
-        <v>1160.5</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,8 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="13">
-        <f>SUM('Caixa de Henrique'!B20,'Caixa de Deborah'!B17,'Caixa de Jenniffer'!B22)</f>
-        <v>1229.4000000000001</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
